--- a/experiment_results/best_case/BankAccountTP/4wise/1_best_case.xlsx
+++ b/experiment_results/best_case/BankAccountTP/4wise/1_best_case.xlsx
@@ -538,7 +538,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -602,7 +602,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>76</v>
@@ -634,7 +634,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -762,7 +762,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>76</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>76</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>76</v>
@@ -954,7 +954,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>76</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>73</v>
@@ -1050,7 +1050,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>76</v>
@@ -1082,7 +1082,7 @@
         <v>56</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>76</v>
@@ -1114,7 +1114,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>76</v>
@@ -1146,7 +1146,7 @@
         <v>52</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>76</v>
@@ -1210,7 +1210,7 @@
         <v>52</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>76</v>
@@ -1242,7 +1242,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>76</v>
@@ -1319,7 +1319,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>76</v>
@@ -1383,7 +1383,7 @@
         <v>56</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>76</v>
@@ -1415,7 +1415,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>76</v>
@@ -1447,7 +1447,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -1767,7 +1767,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>76</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>73</v>
@@ -1863,7 +1863,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>76</v>
@@ -1895,7 +1895,7 @@
         <v>56</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>76</v>
@@ -1927,7 +1927,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>76</v>
@@ -1959,7 +1959,7 @@
         <v>52</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>76</v>
@@ -2023,7 +2023,7 @@
         <v>52</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>76</v>
@@ -2055,7 +2055,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>76</v>
@@ -2132,7 +2132,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>76</v>
@@ -2228,7 +2228,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>76</v>
@@ -2260,7 +2260,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -2580,7 +2580,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>76</v>
@@ -2612,7 +2612,7 @@
         <v>33</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H17">
         <v>73</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18">
         <v>73</v>
@@ -2676,7 +2676,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>76</v>
@@ -2708,7 +2708,7 @@
         <v>56</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>76</v>
@@ -2740,7 +2740,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>76</v>
@@ -2772,7 +2772,7 @@
         <v>52</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>76</v>
@@ -2836,7 +2836,7 @@
         <v>52</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>76</v>
@@ -2868,7 +2868,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <v>76</v>
@@ -2977,7 +2977,7 @@
         <v>56</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -3041,7 +3041,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>76</v>
@@ -3073,7 +3073,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -3201,7 +3201,7 @@
         <v>56</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <v>76</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>76</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H15">
         <v>76</v>
@@ -3393,7 +3393,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>76</v>
@@ -3457,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>73</v>
@@ -3489,7 +3489,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>76</v>
@@ -3521,7 +3521,7 @@
         <v>56</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>76</v>
@@ -3553,7 +3553,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>76</v>
@@ -3585,7 +3585,7 @@
         <v>52</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>76</v>
@@ -3649,7 +3649,7 @@
         <v>52</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>76</v>
@@ -3681,7 +3681,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>76</v>
@@ -3758,7 +3758,7 @@
         <v>56</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>76</v>
@@ -3854,7 +3854,7 @@
         <v>56</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>76</v>
@@ -3886,7 +3886,7 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>76</v>
@@ -4206,7 +4206,7 @@
         <v>56</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>76</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H18">
         <v>73</v>
@@ -4302,7 +4302,7 @@
         <v>56</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>76</v>
@@ -4334,7 +4334,7 @@
         <v>56</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>76</v>
@@ -4366,7 +4366,7 @@
         <v>56</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>76</v>
@@ -4398,7 +4398,7 @@
         <v>52</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>76</v>
@@ -4462,7 +4462,7 @@
         <v>52</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>76</v>
@@ -4494,7 +4494,7 @@
         <v>56</v>
       </c>
       <c r="G25">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>76</v>
